--- a/questions.xlsx
+++ b/questions.xlsx
@@ -19,28 +19,61 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>First Date</t>
+    <t>Question</t>
   </si>
   <si>
-    <t>Question</t>
+    <t>Вопрос 11: Интересно, что, когда в 1891 году ПЕРВЫЙ сломал ногу во время экспедиции, его сумел вылечить ВТОРОЙ. Назовите обоих.
+Ответ: [Роберт] Пири, [Фредерик] Кук.
+Комментарий: Фредерик Кук был врачом гренландской экспедиции Пири. Впоследствии они стали врагами, споря за приоритет в открытии Северного полюса.</t>
+  </si>
+  <si>
+    <t>Вопрос 6: В описании официального ИКСА России упоминаются Михаил Барклай-де-Толли и еще один Михаил. Назовите ИКС.
+Ответ: Тартан.
+Зачёт: Килт.
+Комментарий: Официальный тартан России состоит из тартанов Барклая и Лермонтова, которые были выходцами из Шотландии.</t>
+  </si>
+  <si>
+    <t>Вопрос 15 Святослав Рихтер утверждал, что ВТОРОЕ способно произвести гораздо больший эффект, чем ПЕРВОЕ. Назовите ПЕРВОЕ и ВТОРОЕ.
+Ответ: Форте, пиано.
+Зачёт: По корням слов (например, "фортиссимо, пианиссимо").
+Комментарий: Рихтер говорил о концертном исполнении фортепианных произведений, но можно отнести его замечание и к более широкому контексту: громко не значит эффективно.</t>
+  </si>
+  <si>
+    <t>Вопрос 34: Согласно фанатской теории, основой для которой стали два события прошлого десятилетия, ОНА является метафорой эстроге́на. Назовите ЕЁ двумя словами, которые НЕ начинаются на соседние буквы алфавита.
+Ответ: красная таблетка.
+Комментарий: красная таблетка позволила Нео увидеть реальность такой, какая она есть на самом деле. Согласно фанатской теории, красная таблетка является прямой отсылкой к эстрогену — гормону, принимаемому при смене пола. В интервью 2020 года Лилли Вачовски заявила, что фильм «Матрица» подчёркивает проблемы трансгендерной идентичности.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -51,7 +84,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -59,11 +92,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -81,10 +129,16 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -366,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -382,283 +436,320 @@
     <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="146.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="3">
-        <f>E27</f>
-        <v>45471</v>
-      </c>
-      <c r="C2" s="6"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="7">
+        <v>45485</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="159.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
-        <f>B2</f>
-        <v>45471</v>
-      </c>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="7">
+        <v>45485</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="199.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
-        <f>B3</f>
-        <v>45471</v>
-      </c>
-      <c r="C4" s="6"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="7">
+        <v>45485</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="252" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
-        <f>B4+1</f>
-        <v>45472</v>
-      </c>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="7">
+        <v>45485</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
-        <f>B5</f>
-        <v>45472</v>
-      </c>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="7"/>
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
-        <f>B6</f>
-        <v>45472</v>
-      </c>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="3">
-        <f>B7+1</f>
-        <v>45473</v>
-      </c>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+    </row>
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="3">
-        <f>B8</f>
-        <v>45473</v>
-      </c>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="3">
-        <f>B9</f>
-        <v>45473</v>
-      </c>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="3">
-        <f>B10+1</f>
-        <v>45474</v>
-      </c>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="3">
-        <f>B11</f>
-        <v>45474</v>
-      </c>
-      <c r="C12" s="6"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+    </row>
+    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="3">
-        <f>B12</f>
-        <v>45474</v>
-      </c>
-      <c r="C13" s="6"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+    </row>
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="3">
-        <f>B13+1</f>
-        <v>45475</v>
-      </c>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+    </row>
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="3">
-        <f>B14</f>
-        <v>45475</v>
-      </c>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+    </row>
+    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="3">
-        <f>B15</f>
-        <v>45475</v>
-      </c>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="7"/>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="3">
-        <f>B16+1</f>
-        <v>45476</v>
-      </c>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+    </row>
+    <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="3">
-        <f>B17</f>
-        <v>45476</v>
-      </c>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+    </row>
+    <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="3">
-        <f>B18</f>
-        <v>45476</v>
-      </c>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+    </row>
+    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="3">
-        <f>B19+1</f>
-        <v>45477</v>
-      </c>
-      <c r="C20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+    </row>
+    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="3">
-        <f>B20</f>
-        <v>45477</v>
-      </c>
-      <c r="C21" s="6"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="7"/>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="3">
-        <f>B21</f>
-        <v>45477</v>
-      </c>
-      <c r="C22" s="6"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="3"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="3"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="3"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="3"/>
-      <c r="D27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27" s="4">
-        <v>45471</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="3"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="3"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="3"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="3"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="3"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" s="3"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" s="3"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B35" s="3"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36" s="3"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37" s="3"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B38" s="3"/>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B39" s="3"/>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B40" s="3"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+    </row>
+    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+    </row>
+    <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+    </row>
+    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+    </row>
+    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="9"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="9"/>
+    </row>
+    <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="8"/>
+    </row>
+    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="8"/>
+    </row>
+    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="8"/>
+    </row>
+    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="8"/>
+    </row>
+    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="7"/>
+      <c r="C36" s="9"/>
+    </row>
+    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="7"/>
+      <c r="C37" s="8"/>
+    </row>
+    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="7"/>
+      <c r="C38" s="8"/>
+    </row>
+    <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="7"/>
+      <c r="C39" s="8"/>
+    </row>
+    <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="7"/>
+      <c r="C40" s="8"/>
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="7"/>
+      <c r="C41" s="9"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B42" s="3"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B43" s="3"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B44" s="3"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B45" s="3"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B46" s="3"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B47" s="3"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B48" s="3"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" s="3"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" s="3"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51" s="3"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" s="3"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -19,12 +19,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
   <si>
     <t>Question</t>
+  </si>
+  <si>
+    <t>Вопрос 3:
+Раздаточный материал
+Homo sapiens — Culex pipiens — Homo sapiens — Haematopota pluvialis — Homo sapiens — Bombus proteus — Homo sapiens
+    По мнению автора вопроса, в результате этих метаморфоз пострадали три особы. Назовите всех троих.
+Ответ: Повариха, ткачиха, (сватья баба) Бабариха.
+Зачёт: В любом порядке.
+Комментарий: Данные метаморфозы претерпевал князь Гвидон. Culex pipiens [кУлекс пипиЕнс] — комар обыкновенный, Haematopota pluvialis [гематопОта плювиАлис] — слепень дождёвка обыкновенная (поскольку именно эта муха, обитающая в умеренной зоне, наносит наиболее болезненные укусы, автор вопроса посмел предположить, что именно она фигурирует в сказке Пушкина), Bombus proteus [бОмбус протЕус] — шмель обыкновенный.</t>
   </si>
   <si>
     <t>Вопрос 11: Интересно, что, когда в 1891 году ПЕРВЫЙ сломал ногу во время экспедиции, его сумел вылечить ВТОРОЙ. Назовите обоих.
@@ -111,7 +120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -139,6 +148,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -422,8 +434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -452,7 +464,7 @@
         <v>45485</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="159.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -463,7 +475,7 @@
         <v>45485</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="199.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -474,7 +486,7 @@
         <v>45485</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="252" thickBot="1" x14ac:dyDescent="0.35">
@@ -485,15 +497,19 @@
         <v>45485</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="357.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="9"/>
+      <c r="B6" s="7">
+        <v>45485</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -27,35 +27,35 @@
     <t>Question</t>
   </si>
   <si>
-    <t>Вопрос 3:
-Раздаточный материал
-Homo sapiens — Culex pipiens — Homo sapiens — Haematopota pluvialis — Homo sapiens — Bombus proteus — Homo sapiens
-    По мнению автора вопроса, в результате этих метаморфоз пострадали три особы. Назовите всех троих.
-Ответ: Повариха, ткачиха, (сватья баба) Бабариха.
-Зачёт: В любом порядке.
-Комментарий: Данные метаморфозы претерпевал князь Гвидон. Culex pipiens [кУлекс пипиЕнс] — комар обыкновенный, Haematopota pluvialis [гематопОта плювиАлис] — слепень дождёвка обыкновенная (поскольку именно эта муха, обитающая в умеренной зоне, наносит наиболее болезненные укусы, автор вопроса посмел предположить, что именно она фигурирует в сказке Пушкина), Bombus proteus [бОмбус протЕус] — шмель обыкновенный.</t>
+    <t>#N/A</t>
   </si>
   <si>
-    <t>Вопрос 11: Интересно, что, когда в 1891 году ПЕРВЫЙ сломал ногу во время экспедиции, его сумел вылечить ВТОРОЙ. Назовите обоих.
-Ответ: [Роберт] Пири, [Фредерик] Кук.
-Комментарий: Фредерик Кук был врачом гренландской экспедиции Пири. Впоследствии они стали врагами, споря за приоритет в открытии Северного полюса.</t>
+    <t>Вопрос 35: В древней легенде охотник спасся от преследования дикого зверя, воспользовавшись ИКСом. А затем даже смог убить зверя, попав тому в глаз, тем самым узнав одну из особенностей ИКСа. Кто написал «ИКС»?
+Ответ: Пушкин.
+Комментарий: охотник сначала залез на дерево, а потом опытным путем открыл, что это дерево содержит яды. ИКС – анчар. «Анчар» — известное стихотворение Пушкина, обличающее самодержавие.</t>
   </si>
   <si>
-    <t>Вопрос 6: В описании официального ИКСА России упоминаются Михаил Барклай-де-Толли и еще один Михаил. Назовите ИКС.
-Ответ: Тартан.
-Зачёт: Килт.
-Комментарий: Официальный тартан России состоит из тартанов Барклая и Лермонтова, которые были выходцами из Шотландии.</t>
+    <t>Вопрос 8: Назовите брахмана, написавшего песню "Ты, Господь душ всех людей".
+Ответ: Рабиндранат Тагор.
+Комментарий: Эта песня является национальным гимном Индии. Рабиндранат Тагор был выходцем из касты брахманов.</t>
   </si>
   <si>
-    <t>Вопрос 15 Святослав Рихтер утверждал, что ВТОРОЕ способно произвести гораздо больший эффект, чем ПЕРВОЕ. Назовите ПЕРВОЕ и ВТОРОЕ.
-Ответ: Форте, пиано.
-Зачёт: По корням слов (например, "фортиссимо, пианиссимо").
-Комментарий: Рихтер говорил о концертном исполнении фортепианных произведений, но можно отнести его замечание и к более широкому контексту: громко не значит эффективно.</t>
+    <t>Вопрос 7: Рассказывают, что в ЕГО рацион входило и грудное молоко, для чего при дворе приходилось содержать специальный штат кормилиц. В качестве примера "ЕГО" Википедия называет 105-этажную гостиницу "Рюгён" в Пхеньяне. Назовите ЕГО двумя словами.
+Ответ: Белый слон.
+Комментарий: Белый слон — священная реликвия нескольких королевских дворов Юго-Восточной Азии. По легенде, король Сиама предоставлял содержание своего белого слона неугодным придворным с целью их разорить. Идиома "белый слон" обозначает нечто дорогостоящее и бесполезное. Гостиница "Рюгён", спроектированная как самая высокая в мире, строится почти тридцать лет, хотя зачем такой отель в стране, где практически нет туристов, — не известно.</t>
   </si>
   <si>
-    <t>Вопрос 34: Согласно фанатской теории, основой для которой стали два события прошлого десятилетия, ОНА является метафорой эстроге́на. Назовите ЕЁ двумя словами, которые НЕ начинаются на соседние буквы алфавита.
-Ответ: красная таблетка.
-Комментарий: красная таблетка позволила Нео увидеть реальность такой, какая она есть на самом деле. Согласно фанатской теории, красная таблетка является прямой отсылкой к эстрогену — гормону, принимаемому при смене пола. В интервью 2020 года Лилли Вачовски заявила, что фильм «Матрица» подчёркивает проблемы трансгендерной идентичности.</t>
+    <t>Вопрос 18:
+https://iqga.me/upload/iblock/4c8/4c89257ed8bbb8b9c0a8c32b97a47e6f.png
+В родном городе известного голландца установили необычный фонтан. Конструкция cверху, выпускающая клубы пара, символизирует ЭТО. Назовите ЭТО двумя словами, начинающимися на одну и ту же букву.
+Ответ: облако Оорта
+Зачёт: точный ответ.
+Комментарий: памятник установили во Франекере – родном городе выдающегося астронома Яна Хендрика Оорта, автора идеи о существовании облака, из которого к нам приходят кометы. На снимке пар немного напоминает хвост кометы.</t>
+  </si>
+  <si>
+    <t>Вопрос 5: В статье, посвященной матчу между "Манчестер Юнайтед" и "Глазго Рейнджерс", говорится, что шотландцы бОльшую часть матча заботились об обороне. При этом команда сравнивалась с объектом, включенным в список Всемирного наследия. Назовите этот объект двумя словами.
+Ответ: Адрианов вал.
+Комментарий: Адрианов вал как раз проходит по территории Шотландии и построен для защиты.</t>
   </si>
 </sst>
 </file>
@@ -120,7 +120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -131,9 +131,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -150,7 +147,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -432,340 +429,358 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40" style="5" customWidth="1"/>
+    <col min="3" max="3" width="40" style="4" customWidth="1"/>
     <col min="4" max="4" width="19.88671875" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.77734375" style="1" customWidth="1"/>
     <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="146.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="7">
-        <v>45485</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="159.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="7">
-        <v>45485</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="199.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="7">
-        <v>45485</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="252" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="7">
-        <v>45485</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="357.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="7">
-        <v>45485</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="6"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-    </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-    </row>
-    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-    </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="7"/>
+      <c r="B11" s="6"/>
       <c r="C11" s="8"/>
-    </row>
-    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-    </row>
-    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-    </row>
-    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-    </row>
-    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-    </row>
-    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="9"/>
-    </row>
-    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="6"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-    </row>
-    <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-    </row>
-    <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-    </row>
-    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-    </row>
-    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="9"/>
-    </row>
-    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="6"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+    </row>
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-    </row>
-    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-    </row>
-    <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="9"/>
+    </row>
+    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
-    </row>
-    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-    </row>
-    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="9"/>
+    </row>
+    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="9"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="6"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="6"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B28" s="6"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="9"/>
+    </row>
+    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="6"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="9"/>
+    </row>
+    <row r="30" spans="1:4" ht="199.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="6">
+        <v>45491</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="9"/>
+    </row>
+    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="9"/>
-    </row>
-    <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="6">
+        <v>45491</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="8"/>
+    </row>
+    <row r="32" spans="1:4" ht="133.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="8"/>
-    </row>
-    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="6">
+        <v>45492</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="9"/>
+    </row>
+    <row r="33" spans="1:4" ht="291.60000000000002" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="8"/>
-    </row>
-    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="6">
+        <v>45492</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="9"/>
+    </row>
+    <row r="34" spans="1:4" ht="265.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="8"/>
-    </row>
-    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="6">
+        <v>45492</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="9"/>
+    </row>
+    <row r="35" spans="1:4" ht="186" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="8"/>
-    </row>
-    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="7"/>
-      <c r="C36" s="9"/>
-    </row>
-    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="7"/>
-      <c r="C37" s="8"/>
-    </row>
-    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="7"/>
-      <c r="C38" s="8"/>
-    </row>
-    <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="7"/>
-      <c r="C39" s="8"/>
-    </row>
-    <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="7"/>
-      <c r="C40" s="8"/>
-      <c r="E40" s="4"/>
-    </row>
-    <row r="41" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="7"/>
-      <c r="C41" s="9"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B35" s="6">
+        <v>45492</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="9"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B39" s="3"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B41" s="3"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B42" s="3"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B43" s="3"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B44" s="3"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B45" s="3"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B46" s="3"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B47" s="3"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B48" s="3"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B49" s="3"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B50" s="3"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B51" s="3"/>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B52" s="3"/>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B53" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -429,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -453,334 +453,110 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="186" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="B2" s="6">
+        <v>45491</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="9"/>
-    </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="B3" s="6">
+        <v>45491</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:4" ht="106.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="B4" s="6">
+        <v>45492</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="D4" s="9"/>
     </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="291.60000000000002" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="B5" s="6">
+        <v>45492</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="D5" s="9"/>
     </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="265.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="B6" s="6">
+        <v>45492</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:4" ht="186" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="B7" s="6">
+        <v>45492</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="D7" s="9"/>
     </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-    </row>
-    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="9"/>
-    </row>
-    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="9"/>
-    </row>
-    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="9"/>
-    </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-    </row>
-    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="9"/>
-    </row>
-    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="9"/>
-    </row>
-    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="9"/>
-    </row>
-    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="9"/>
-    </row>
-    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-    </row>
-    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="9"/>
-    </row>
-    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="9"/>
-    </row>
-    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="9"/>
-    </row>
-    <row r="30" spans="1:4" ht="199.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" s="6">
-        <v>45491</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" s="9"/>
-    </row>
-    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" s="6">
-        <v>45491</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="8"/>
-    </row>
-    <row r="32" spans="1:4" ht="133.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" s="6">
-        <v>45492</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="9"/>
-    </row>
-    <row r="33" spans="1:4" ht="291.60000000000002" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" s="6">
-        <v>45492</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="9"/>
-    </row>
-    <row r="34" spans="1:4" ht="265.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" s="6">
-        <v>45492</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="9"/>
-    </row>
-    <row r="35" spans="1:4" ht="186" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" s="6">
-        <v>45492</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="9"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="3"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="3"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="3"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B39" s="3"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B40" s="3"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B41" s="3"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B42" s="3"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B43" s="3"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B44" s="3"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B45" s="3"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B46" s="3"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -30,32 +30,141 @@
     <t>#N/A</t>
   </si>
   <si>
-    <t>Вопрос 35: В древней легенде охотник спасся от преследования дикого зверя, воспользовавшись ИКСом. А затем даже смог убить зверя, попав тому в глаз, тем самым узнав одну из особенностей ИКСа. Кто написал «ИКС»?
-Ответ: Пушкин.
-Комментарий: охотник сначала залез на дерево, а потом опытным путем открыл, что это дерево содержит яды. ИКС – анчар. «Анчар» — известное стихотворение Пушкина, обличающее самодержавие.</t>
-  </si>
-  <si>
-    <t>Вопрос 8: Назовите брахмана, написавшего песню "Ты, Господь душ всех людей".
-Ответ: Рабиндранат Тагор.
-Комментарий: Эта песня является национальным гимном Индии. Рабиндранат Тагор был выходцем из касты брахманов.</t>
-  </si>
-  <si>
-    <t>Вопрос 7: Рассказывают, что в ЕГО рацион входило и грудное молоко, для чего при дворе приходилось содержать специальный штат кормилиц. В качестве примера "ЕГО" Википедия называет 105-этажную гостиницу "Рюгён" в Пхеньяне. Назовите ЕГО двумя словами.
-Ответ: Белый слон.
-Комментарий: Белый слон — священная реликвия нескольких королевских дворов Юго-Восточной Азии. По легенде, король Сиама предоставлял содержание своего белого слона неугодным придворным с целью их разорить. Идиома "белый слон" обозначает нечто дорогостоящее и бесполезное. Гостиница "Рюгён", спроектированная как самая высокая в мире, строится почти тридцать лет, хотя зачем такой отель в стране, где практически нет туристов, — не известно.</t>
-  </si>
-  <si>
-    <t>Вопрос 18:
-https://iqga.me/upload/iblock/4c8/4c89257ed8bbb8b9c0a8c32b97a47e6f.png
-В родном городе известного голландца установили необычный фонтан. Конструкция cверху, выпускающая клубы пара, символизирует ЭТО. Назовите ЭТО двумя словами, начинающимися на одну и ту же букву.
-Ответ: облако Оорта
-Зачёт: точный ответ.
-Комментарий: памятник установили во Франекере – родном городе выдающегося астронома Яна Хендрика Оорта, автора идеи о существовании облака, из которого к нам приходят кометы. На снимке пар немного напоминает хвост кометы.</t>
-  </si>
-  <si>
-    <t>Вопрос 5: В статье, посвященной матчу между "Манчестер Юнайтед" и "Глазго Рейнджерс", говорится, что шотландцы бОльшую часть матча заботились об обороне. При этом команда сравнивалась с объектом, включенным в список Всемирного наследия. Назовите этот объект двумя словами.
-Ответ: Адрианов вал.
-Комментарий: Адрианов вал как раз проходит по территории Шотландии и построен для защиты.</t>
+    <t>корабль дураков босха</t>
+  </si>
+  <si>
+    <t>Тео ван Гог</t>
+  </si>
+  <si>
+    <t>Бейлис, дело Бейлиса</t>
+  </si>
+  <si>
+    <t>HAL 9000</t>
+  </si>
+  <si>
+    <t>буба кики</t>
+  </si>
+  <si>
+    <t>десять дней кот. потрясли</t>
+  </si>
+  <si>
+    <t>Превращение» кафка</t>
+  </si>
+  <si>
+    <t>Кнут Гамсун Голод</t>
+  </si>
+  <si>
+    <t>Дэмьен Херст</t>
+  </si>
+  <si>
+    <t>Вопрос 6:
+https://db.chgk.info/images/db/20160803.jpg
+    Перед вами нижний фрагмент иллюстрации к научной статье. Если на нем распознаётся, пожалуй, самая известная АЛЬФА — значит, задача ИКСА решена качественно. АЛЬФА ИКСА — символ профессионального лицемерия. Что мы заменили АЛЬФОЙ ИКСА?
+Ответ: Улыбка коммивояжера.
+Комментарий: АЛЬФА — улыбка. ИКС — коммивояжер. Статья посвящена использованию критерия понятности получающихся изображений для оценки качества методов оптимальной маршрутизации (задачи коммивояжера). В данном случае исходное изображение — Мона Лиза.</t>
+  </si>
+  <si>
+    <t>Вопрос 9: В этом вопросе ИКС заменяет словосочетание.
+    Пароход "Грейт Истерн" был настолько огромен, что, по выражению шутников, пассажиры парохода могли бы иметь своего ИКСА. ИКСОВ сейчас 659, и их принято называть двумя буквами. Напишите эти буквы.
+Ответ: MP [чтецу: эм-пи].
+Комментарий: Пассажиров могло быть до четырех тысяч, что давало бы право избирать своего представителя в палате общин. По итогам последних на данный момент выборов в Палате общин 659 членов. Членов Парламента сокращают до MP — Members of Parliament.</t>
+  </si>
+  <si>
+    <t>Вопрос 32: Психолог Гелена Савицкая проводит аналогии между людьми и архитектурными элементами. С чем она сравнивает женщин, которые много на себя берут и пытаются всё контролировать, но реальной пользы почти не приносят?
+Ответ: С кариатидой.
+Комментарий: В реальном мире кариатида пользы приносит куда меньше, чем можно предположить по виду.</t>
+  </si>
+  <si>
+    <t>Вопрос 13: Этот глагол стоит под номером 42 в известном собрании середины XIX века. Этот же глагол, только на другом языке и во множественном числе, завершает произведение середины XX века. Назовите автора второго произведения.
+Ответ: [Юлиус] Фучик.
+Комментарий: Глагол — "Бди!" (К. Прутков, "Мысли и афоризмы", N 42), у Фучика — "Bděte!", что перевели на русский как "Будьте бдительны!".</t>
+  </si>
+  <si>
+    <t>Вопрос 14: Один человек рассказывает, что, обучаясь на факультете искусствоведения, писал дипломную работу по творчеству художника Ива Кляйна в том числе по некой причине. А на первом курсе преподаватель по той же причине посоветовал ему специализироваться на античной скульптуре. Назовите эту причину словом английского происхождения.
+Ответ: Дальтонизм.
+Зачёт: Дальтоник.
+Комментарий: Ив Кляйн известен своими монохромными работами. Для многих работ он использовал синий цвет, который был назван в его честь — так называемый "международный синий цвет Кляйна". Для того чтобы изучать античную скульптуру, различать цвета не обязательно. Актер Эдди Редмэйн, получивший искусствоведческое образование, — дальтоник.</t>
+  </si>
+  <si>
+    <t>Вопрос 13:
+https://db.chgk.info/images/db/20140087.jpg
+    Пешеходный маршрут, который проходит вдоль всего побережья Бретани, носит название "тропа ИКСОВ". Назовите ИКСА.
+Ответ: Таможенник.
+Комментарий: Бретань с ее неровным рельефом и большой протяженностью береговой линии была излюбленным местом нелегальной выгрузки товаров. Поэтому для борьбы с контрабандистами здесь была проложена так называемая "тропа таможенников", которая в наши дни стала туристическим маршрутом. Мы раздали вам посвященную Бретани картину художника-примитивиста Анри Руссо, который носил прозвище Таможенник.</t>
+  </si>
+  <si>
+    <t>Вопрос 11: Некоторые переводчики предпочли вставить между первыми двумя словами этого произведения междометие "о". Назовите это произведение.
+Ответ: "The Tyger".
+Зачёт: "Тигр"; "Тигр, тигр"; "Тигр, о тигр...".
+Комментарий: Интересно, что были еще и переводчики, колебавшиеся в выборе. В более позднем варианте перевода знаменитого стихотворения Уильяма Блейка Самуил Маршак вставил в стихотворение междометие "о", что не изменило размер стихотворения. Строки перевода звучат, соответственно, как "Тигр, тигр — огонь, горящий..." и "Тигр, о тигр, светло горящий".</t>
+  </si>
+  <si>
+    <t>Вопрос 9: В одном из фильмов Шерлок Холмс сравнивает своего брата и его клуб со всюду лезущей секретной службой. Стоит, мол, начаться волнениям в Судане, как рядом оказывается экспедиция, направленная клубом к истокам Нила, а беспорядки в Гималаях не обходятся без искателей снежного человека. В русской озвучке Холмс характеризует клуб поговоркой из четырех слов. Воспроизведите ее.
+Ответ: В каждой бочке затычка.
+Зачёт: К каждой бочке затычка.
+Комментарий: Поговорка используется для описания человека, который непрошено вмешивается во все дела. И по смыслу подходит, и названию клуба "Диоген" хорошо соответствует. В оригинале Холмс говорит, что "Диоген" is here, there, and everywhere.</t>
+  </si>
+  <si>
+    <t>Вопрос 24:   Внимание, в данном вопросе мы дважды пропустили одни и те же три буквы.
+    Известный человек однажды заявил, что "Сталин — гигант, а все западные деятели — геи". Считается, что в "галионе" этот человек отразил свое многолетнее увлечение фонетикой. Назовите этого человека.
+Ответ: [Джордж Бернард] Шоу.
+Комментарий: Мы дважды пропустили буквы "П", "И", "М" в буквосочетании -ПИГМ-. На самом деле Бернард Шоу называл западных деятелей пигмеями. Во второй части вопроса речь идет о его пьесе "Пигмалион".</t>
+  </si>
+  <si>
+    <t>Вопрос 14: В годы пребывания ТАМ английский мистик семнадцатого века Элино́р Дэ́вис считала себя Девой Марией в пещере. Ответьте точно: где ТАМ?
+Ответ: в Бедла́ме.
+Зачёт: по слову «Бедлам».
+Комментарий: английская лечебница для душевнобольных «Бедлам» получила своё название в честь города Вифлеем. Будучи обитательницей Бедлама, Дэвис называла себя Девой Марией, которая вот-вот родит Христа.</t>
+  </si>
+  <si>
+    <t>Вопрос 10: Из англоязычной фразы Эжена Ионеско трудно понять, какой маршрут он избрал для безумных пророков — из НАЗАРЕТА в ЛАЗАРЕТ или наоборот. Напишите на русском или английском языке в произвольном порядке слова, которые мы заменили словами "НАЗАРЕТ" и "ЛАЗАРЕТ".
+Ответ: Bethleham, Bethleham или Вифлеем, Бедлам.
+Зачёт: В любом порядке.
+Комментарий: Бедлам — больница для умалишенных в Лондоне, название которой произошло от названия города Вифлеем. Двусмысленная фраза Ионеско звучит как "from Bethleham to Bethleham".</t>
+  </si>
+  <si>
+    <t>Вопрос 7: В японской живописи эпохи Хэйан использовался прием “интерьера со снятой крышей”, создающий эффект ЕГО. “ОН” был опубликован в 1879 году. Назовите ЕГО двумя словами.
+Ответ: кукольный дом
+Зачёт: кукольный домик
+Комментарий: В японской живописи ямато-э периода Хэйан с VIII по XII век сцены в дворцовых покоях изображались сверху, как будто зритель заглядывал в кукольный домик и видел фрагмент помещения со скошен­ными балками, занавесями и сидящими в них героями. Пьеса Ибсена “Кукольный дом” была опубликована в 1879 году.</t>
+  </si>
+  <si>
+    <t>Вопрос 31:
+https://i.imgur.com/39vxMGp.png
+    По замечанию Анны Егоровой, рассматривая картины в стиле яма́то-э́, зритель будто бы заглядывает в НЕГО. Впервые «ОН» был представлен публике в 1879 году. Назовите ЕГО.
+Ответ: Кукольный дом.
+Зачёт: Кукольный домик.
+Комментарий: В ямато-э дворцы часто изображали со снятой крышей и стеной. В этом случае художник и зрители наблюдают дворцовые залы, словно заглядывая в кукольный домик. Пьеса Ге́нрика И́бсена «Кукольный дом» впервые была поставлена в 1879 в Королевском театре Копенгагена.</t>
+  </si>
+  <si>
+    <t>Вопрос 10: В вопросе есть замена.
+    Оливер Сакс в книге "Человек, который принял жену за шляпу" рассказывает о женщине, которая утратила идею "левой стороны", т.е. не видела ничего, что находилось слева, — например, еду на левой стороне тарелки. Она выработала стратегии, позволяющие обойти дефект: так, если ей казалось, что на тарелке не хватает еды, она начинала вертеться на кресле-каталке вправо. Доехав по кругу до недостающей половины, она съедала половину еды, и если всё еще была голодна, то делала еще один оборот, и т.д. Таким образом, пациентка Сакса сравнила себя с бочкой Диогена. Какие слова мы заменили в этом вопросе?
+Ответ: Стрела Зенона.
+Комментарий: "Абсурд, — говорит она. — Я как стрела Зенона — никогда не долетаю до цели. Выглядит это, наверно, как в цирке, но куда же денешься?".</t>
+  </si>
+  <si>
+    <t>Вопрос 11:   Математик Сергей Бобров удалил верхний левый фрагмент из того, что можно увидеть на "НЕЙ". В результате он получил позицию, для которой несложно найти решение. Идея другой "ЕЕ" зародилась во время сеанса психотерапии. Назовите ЕЕ.
+Ответ: Меланхолия.
+Зачёт: "Меланхолия".
+Комментарий: Бобров, который был не только математиком, но и художником, вытащил из магического квадрата, изображенного на "Меланхолии" Дюрера, верхний левый фрагмент с числом 16. Для получившейся позиции игры "15" несложно найти алгоритм, который позволяет переставить числа в порядке возрастания. Уроженцу Копенгагена Ларсу фон Триеру идея фильма "Меланхолия" пришла во время лечения от депрессии.</t>
+  </si>
+  <si>
+    <t>Вопрос 11:
+https://db.chgk.info/images/db/20120370.jpg
+    Перед вами фрагмент картины Дюрера "Четыре апостола". Крайний справа — Павел. По распространенному мнению, на картине Павел олицетворяет, в частности, ЭТО. ЭТО во времена Дюрера считалось присущим гениям. Назовите ЭТО.
+Ответ: Меланхолия.
+Комментарий: Четыре апостола представляют четыре разных типа темперамента. У Дюрера есть известнейшая гравюра "Меланхолия".</t>
+  </si>
+  <si>
+    <t>Вопрос 6: Джон Мэн пишет, что в шестнадцатом веке ОН объявлял об интересных новинках и служил хорошей рекламой. Назовите ЕГО.
+Ответ: Индекс запрещенных книг.
+Зачёт: Список запрещенных книг.
+Комментарий: Благодаря включению новой книги в список запрещенных книг о ней узнавали потенциальные издатели и читатели.</t>
+  </si>
+  <si>
+    <t>Вопрос 66: Когда с книгой Фердинанда Грегоровиуса "История Рима в Средние века" произошло это, его поздравляли с высокой честью. Автор лично отправился проверить это в Собор святого Петра. Что же случилось с книгой?
+Ответ: Она попала в "Индекс запрещенных книг".
+Комментарий: Грегоровиус не был большим любителем католической церкви. В Соборе святого Петра вывешивались списки новых книг, попавших в Индекс.</t>
   </si>
 </sst>
 </file>
@@ -120,19 +229,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -146,8 +246,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -429,134 +529,437 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40" style="4" customWidth="1"/>
+    <col min="3" max="3" width="40" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.88671875" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.77734375" style="1" customWidth="1"/>
     <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="186" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>45516</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" ht="199.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>45516</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="252" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>45516</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="186" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>45516</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>45516</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>45517</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="304.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>45517</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="252" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <v>45517</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <v>45517</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <v>45517</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <v>45518</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="172.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3">
+        <v>45518</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="6">
-        <v>45491</v>
-      </c>
-      <c r="C2" s="7" t="s">
+    </row>
+    <row r="14" spans="1:4" ht="265.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
+        <v>45518</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3">
+        <v>45518</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3">
+        <v>45518</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3">
+        <v>45519</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9"/>
-    </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+    </row>
+    <row r="18" spans="1:3" ht="331.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3">
+        <v>45519</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="318" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3">
+        <v>45519</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3">
+        <v>45519</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3">
+        <v>45519</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3">
+        <v>45520</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="199.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3">
+        <v>45520</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="304.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3">
+        <v>45520</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="172.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3">
+        <v>45520</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3">
+        <v>45520</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3">
+        <v>45521</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3">
+        <v>45521</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="186" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3">
+        <v>45521</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="6">
-        <v>45491</v>
-      </c>
-      <c r="C3" s="8" t="s">
+    </row>
+    <row r="30" spans="1:3" ht="252" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3">
+        <v>45521</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="3">
+        <v>45521</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="1:4" ht="106.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>30</v>
-      </c>
-      <c r="B4" s="6">
-        <v>45492</v>
-      </c>
-      <c r="C4" s="7" t="s">
+    </row>
+    <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="3">
+        <v>45522</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="3">
+        <v>45522</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" ht="265.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="3">
+        <v>45522</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" ht="278.39999999999998" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="3">
+        <v>45522</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="3">
+        <v>45522</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="3">
+        <v>45523</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="3">
+        <v>45523</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="9"/>
-    </row>
-    <row r="5" spans="1:4" ht="291.60000000000002" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>31</v>
-      </c>
-      <c r="B5" s="6">
-        <v>45492</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" spans="1:4" ht="265.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>32</v>
-      </c>
-      <c r="B6" s="6">
-        <v>45492</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="1:4" ht="186" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>33</v>
-      </c>
-      <c r="B7" s="6">
-        <v>45492</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="3"/>
+    </row>
+    <row r="39" spans="2:3" ht="238.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="3">
+        <v>45523</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" ht="238.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="3">
+        <v>45523</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="3">
+        <v>45523</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -19,25 +19,193 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
   <si>
     <t>Question</t>
+  </si>
+  <si>
+    <t>Вопрос 1:  В подобных случаях китайцы говорят о птичьем, немцы — об испанском, англичане — о греческом, а турки — о французском. Назовите фразеологизмом из двух слов ту, о которой вспоминают русские.
+Ответ: Китайская грамота.
+Комментарий: Когда немцы не понимают чего-то, они говорят, что это для них испанский язык. Англичане говорят: "It's Greek to me". Китайцы говорят про птичий язык. Надеемся, что наш турнир не станет для вас "китайской грамотой". Желаем удачи всем играющим командам!</t>
+  </si>
+  <si>
+    <t>Вопрос 18: Перед саммитом Шанхайской организации сотрудничества владельцев магазинов в центре Екатеринбурга обязали произвести два аналогичных мероприятия. Первое особых проблем не вызвало: многие торговцы даже могли провести его самостоятельно. А вот со вторым были сложности — даже просто проверить его исполнение торговцам было трудно, ибо они в массе своей не знали ЭТОГО. Назовите ЭТО, ставшее в русском языке идиомой.
+Ответ: Китайская грамота.
+Комментарий: От торговцев потребовали завести ценники на английском и китайском. Английский текст многим торговцам оказался вполне по зубам, а вот китайская грамота — она и есть китайская грамота. Поди разберись, что там понаписали иероглифами...</t>
+  </si>
+  <si>
+    <t>Вопрос 34: Не побоявшись общественного гнева, юморист Барри Хамфрис заявил, что, в отличие от НЕЁ, умеет плавать. Все события произведения, в названии которого фигурирует ОНА, происходят в одной комнате. Назовите ЕЁ.
+Ответ: Вирджиния Вулф.
+Зачёт: по фамилии Вулф или Вульф без неверных уточнений.
+Комментарий: в 1941 году Вирджиния Вулф покончила жизнь самоубийством, утопившись в реке. Барри Хамфрис не побоялся шутить на эту чёрную тему. Действие пьесы Эдварда Олби «Кто боится Вирджинии Вулф?» происходит в одной гостиной. Слово «комната» могло напомнить вам об эссе Вирджинии Вулф «Своя комната».</t>
+  </si>
+  <si>
+    <t>Вопрос 4: Рассказывают, что в 1928 году перед парижской премьерой фильма "Андалузский пес" Луис Бунюэль наполнил [ПРОПУСК] на случай возможного скандала. 28 марта 1941 года Вирджиния Вулф оставила письмо мужу и наполнила [ПРОПУСК]. Заполните любой из пропусков двумя словами, начинающимися с одной и той же буквы.
+Ответ: "... карманы камнями...".
+Зачёт: "... камнями карманы...".
+Комментарий: Бунюэль сделал это, чтобы в случае скандала иметь возможность отбиться от разъяренных зрителей (но опасения режиссера оказались напрасными). Будучи в глубокой депрессии, Вулф написала прощальное письмо, наполнила карманы камнями и утопилась в реке.</t>
+  </si>
+  <si>
+    <t>Вопрос 42: В 90-е хоккейный «Детройт» был одним из сильнейших клубов НХЛ. Комментируя невзрачную игру нынешнего «Детройта», комментаторы Eurosport вспомнили строку из произведения 1995 года. Назовите любого из его авторов.
+Ответ: Илья Кормильцев.
+Зачёт: Вячеслав Бутусов, Кормильцев, Бутусов.
+Комментарий: «Где твои крылья, которые нравились мне». Кормильцев написал слова для песни, Бутусов музыку. Полное название команды — «Детройт Ред Уингз»</t>
+  </si>
+  <si>
+    <t>Вопрос 14: Компания "Quiksilver" [квиксИльвер] производит экипировку для серфингистов и сноубордистов. Чтобы символично обозначить оба вида спорта, дизайнеры разработали логотип, взяв за основу произведение XIX века. Назовите его автора.
+https://db.chgk.info/images/db/20150829.jpg
+Ответ: Хокусай.
+Комментарий: На сёрфинг намекает изображение волны, а на сноубординг — изображение горы. Упомянутое произведение — гравюра Хокусая "Большая волна в Канагаве" из цикла "Тридцать шесть видов Фудзи".</t>
+  </si>
+  <si>
+    <t>Вопрос 8: По словам Брайана Грина, Ньютон объявил, что абсолютно всё оказывает воздействие на абсолютно всё во Вселенной. Грин пишет, что ньютоновскую концепцию тяготения можно было бы назвать так же, как называют американца, жившего в девятнадцатом веке. Назовите этого американца.
+Ответ: [Сэмюэль] Кольт.
+Комментарий: Поскольку все объекты во Вселенной оказывают и испытывают воздействие тяжести, получается определенное равенство, поэтому теория Ньютона — своеобразный великий уравнитель.</t>
+  </si>
+  <si>
+    <t>Вопрос 9: В фильме "Седьмая печать" актер, рассматривающий маску смерти, говорит, что скоро он выступит ТАМ. В другом произведении актеры исполнили ТАМ пьесу "Убийство Гонзаго". Ответьте как можно точнее: где именно?
+Ответ: В Эльсиноре.
+Комментарий: Маска смерти напоминает череп. Гамлет из одноименного произведения Шекспира попросил приехавших актеров исполнить пьесу "Убийство Гонзаго", вставив туда несколько строк собственного сочинения.</t>
+  </si>
+  <si>
+    <t>Вопрос 8:
+https://db.chgk.info/images/db/20150555.jpg
+    На фотографии — один из сувениров, которые можно приобрести в музейной лавке. Назовите город, в котором находится эта лавка.
+Ответ: Хельсингёр.
+Зачёт: Эльсинор; Гельсинор.
+Комментарий: Город, в котором происходит действие "Гамлета"; в музейной лавке можно приобрести, в частности, "череп Йорика", книги Шекспира и о Шекспире (на фотографии можно их разглядеть).</t>
+  </si>
+  <si>
+    <t>Вопрос 46:
+https://db.chgk.info/images/db/20100829.jpg
+    Данное фото сделано в Ампурдане, поэтому на нем вряд ли изображен ИКС. Тем не менее, того, кто причастен к появлению "ИКСА", вы видите, хотя его и трудно узнать. Назовите ИКСА двумя словами.
+Ответ: Андалузский пес.
+Комментарий: На фото изображен пятилетний Сальвадор Дали, которого без усов узнать многим весьма трудно. Рядом с ним его собака, но так как фото сделано в Ампурдане — одной из частей Каталонии, то пес явно не андалузский.</t>
+  </si>
+  <si>
+    <t>Вопрос 11: Эвита Перон считала поэтессу Викторию Окампо безнадежно глупой. Ответьте максимально точно, с кем, обыгрывая имя поэтессы, сравнивала ее Перон.
+Ответ: С Никой Самофракийской.
+Комментарий: Тоже победа, и тоже безголовая…</t>
+  </si>
+  <si>
+    <t>Вопрос 22:
+Раздаточный материал
+    katya2@imperatrica.com — Екатерина II
+    kurbsky@anti-ivan.lt — кн. Андрей Курбский
+    ioannpii@vatikan.org — Кароль Войтыла
+    etat@france.fr
+    Перед вами вымышленные почтовые адреса известных личностей. Назовите абсолютно точно человека, которому приписан адрес etat@france.fr.
+Ответ: Людовик XIV.
+Зачёт: Король-Солнце. Незачет: Людовик.
+Комментарий: Людовику XIV приписывают фразу "Государство — это я".</t>
+  </si>
+  <si>
+    <t>Вопрос 7: "В 1982 году на русском грузовом судне, ставшем на якорь у побережья Сассекса, на мостике была замечена сутулая фигура с биноклем в руках". Имя, под которым стал известен этот человек, совпадает с фамилией главы государства. Какого государства?
+Ответ: КНДР.
+Зачёт: Северная Корея.
+Комментарий: Это был знаменитый разведчик Ким Филби, решивший в последний раз взглянуть на родину. Разумеется, въезд в Великобританию ему был запрещен.
+    Примечание: Ким — это псевдоним.</t>
+  </si>
+  <si>
+    <t>Вопрос 5: По мнению Кима, с таким сосредоточенным и напряженным лицом Максим бы и дня не продержался. Назовите фамилии обоих.
+Ответ: Филби, Исаев.
+Зачёт: Филби, Штирлиц.
+Комментарий: Известный советский шпион Ким Филби заявил после просмотра кинофильма "Семнадцать мгновений весны": "С таким сосредоточенным и напряженным лицом настоящий Штирлиц не продержался бы и дня!".</t>
+  </si>
+  <si>
+    <t>Вопрос 4: Герой ЖоЭля ДиккЕра вспоминает, что незадолго до казни супругов РОзенберг на Бродвее впервые поставили пьесу, персонажами которой являются в том числе Абигайль Уильямс и Ребекка Нёрс. В каком городе происходит действие этой пьесы?
+Ответ: Салем.
+Зачёт: Сейлем.
+Комментарий: Это пьеса Артура Миллера "Салемские колдуньи" (оригинальное название пьесы — "Суровое испытание"). Довольно очевидна параллель между пуританской охотой на ведьм и маккартистскими чистками и шпиономанией. У пуритан часто встречались библейские имена. Пьеса Миллера была поставлена в январе 1953 года, а Розенбергов казнили в июне того же года.</t>
+  </si>
+  <si>
+    <t>Вопрос 75: В одном сериале герой проникается презрением к коллекционеру, собирающему картины Гитлера. Однако герой меняет своё мнение, когда, войдя в зал с картинами, понимает, что находится в своеобразном ИКСЕ. Назовите ИКС словом латинского происхождения.
+Ответ: колумбарий.
+Комментарий: коллекционер не был поклонником Гитлера, а как раз наоборот — он приобретал картины, чтобы сжечь их. Зал с картинами оказался колумбарием, а на каждой вазе с «прахом» было подписано, какая это была картина.</t>
+  </si>
+  <si>
+    <t>Вопрос 2: В сатирическом эссе Остин Холиок высказывал сомнение в том, что свой ОН есть в недрах каждой населённой планеты. Следовательно, многих людей ждёт знакомство с инопланетянами. Какое определение дал ЕМУ автор произведения середины XX века?
+Ответ: [ад —] это другие.
+Зачёт: по слову «другие».
+Комментарий: Остин Холиок написал сатирическое эссе на тему природы и местонахождения рая и ада. Холиок размышлял, куда после смерти попадают инопланетяне. Так, он писал, что поскольку вряд ли в недрах каждой населённой планеты есть свой локальный адок, все грешные существа должны попадать в один общий ад, а значит, многих людей ждёт знакомство с инопланетянами. Утверждение «ад — это другие» Сартр сформулировал в своей пьесе «За закрытыми дверями».</t>
+  </si>
+  <si>
+    <t>Вопрос 6: Брайс Девитт цитирует это произведение во введении книги "Многомировая интерпретация квантовой механики". В оригинальном названии этого произведения есть слово, однокоренное слову "бифуркация". Назовите это произведение.
+Ответ: "Сад расходящихся тропок".
+Комментарий: Многомировая интерпретация квантовой механики описывает множество альтернативных Вселенных, в которых реализуются все возможные варианты развития событий. В рассказе Борхеса "Сад расходящихся тропок" можно увидеть множественные параллели с этой идеей. Бифуркация — это разветвление. По-испански произведение называется "El Jardín de senderos que se bifurcan".</t>
+  </si>
+  <si>
+    <t>Вопрос 46: В начале XX [двадцатого] века Сергей АльпЕров в своих номерах высмеивал самодержавие, а после революции выступал перед бойцами Красной армии. Как ни странно, в дуэте с Борисом МухнИцким АльпЕров был ИМ. Назовите ЕГО двумя словами.
+Ответ: белый клоун.
+Комментарий: в парной цирковой буффонаде есть 2 типажа: белый клоун, который отличается высокомерием, умом и злопамятностью, и легкомысленный, простоватый рыжий клоун. Альперов в дуэте исполнял роль белого клоуна, хотя сам симпатий к белым не питал и даже занимался национализацией цирков при советской власти.</t>
+  </si>
+  <si>
+    <t>Вопрос 2: О НЕЙ и мудреце написана опера. Герой детской книги, став ЕЮ, почувствовал, что у него в животе дух захватывает. Назовите ЕЕ.
+Ответ: Бабочка.
+Комментарий: Герой сказки Валерия Медведева превратился в бабочку и во время полета всё время проваливался в воздушные ямы. Слова "в животе" могли послужить подсказкой. Сложные взаимоотношения с чешуекрылыми были у философа Чжуан-цзы, который так и не смог понять, снилось ли ему, что он стал бабочкой, или бабочке снилось, что она стала философом. Современная китайская опера так и называется — "Сон Чжуан-цзы о бабочке".</t>
+  </si>
+  <si>
+    <t>Вопрос 7: По легенде, когда ОН однажды нагИм проходил мимо тОржища, женщины стали насмехаться над НИМ и тут же ослепли. Правда, к торговкам в итоге зрение всё же вернулось. Назовите ЕГО.
+Ответ: Василий Блаженный.
+Зачёт: Блаженный Василий.
+Комментарий: Василий, как и полагает блаженному, отличался эксцентричным внешним видом и поведением. Согласно апОкрифу, оскорбившие его женщины ослепли, однако тут же покаялись и исцелились. Более известна другая легенда, согласно которой Иван Грозный ослепил Барму и Постника, архитекторов Собора Василия Блаженного.</t>
+  </si>
+  <si>
+    <t>Вопрос 6: Арка Константина в Риме составлена из большого количества фрагментов разных стилей. В итальянском прозвище арки фигурирует ОНА. ОНА — заглавная героиня итальянского произведения XIX века. Что это за произведение?
+Ответ: "Сорока-воровка".
+Комментарий: Фрагменты арки натасканы из разных стилей, как добыча сороки. В опере Россини "Сорока-воровка" важную роль играет настоящая сорока.</t>
+  </si>
+  <si>
+    <t>Вопрос 4: В статье Википедии "Скороговорка" упоминается слово, пришедшее из языка афразийской макросемьи. Напишите его.
+Ответ: Шибболет.
+Комментарий: Как известно, тех, кто не мог выговорить слово "шибболет" правильно, ждала незавидная участь. Аналогичным способом для распознания "свой-чужой" можно использовать и скороговорки. Слово "шибболет" пришло из иврита, который относится к афразийской языковой макросемье.</t>
+  </si>
+  <si>
+    <t>Вопрос 13: По словам Юрия Дрозда, в этом городе был сухой климат, и поэтому поступок людей, наполнивших бочки, тоже можно считать чудом. Назовите этот город.
+Ответ: Кана [Галилейская].
+Комментарий: В Кане Галилейской свое первое чудо сотворил Иисус Христос, когда превратил воду в вино. Оказывается, наполнить бочки водой было тоже непросто.</t>
+  </si>
+  <si>
+    <t>Вопрос 4:
+https://db.chgk.info/images/db/20160119.jpg
+    В сериале "Доктор Кто" помогающих Великобритании дАлеков Уинстон Черчилль называет ИМИ, подразумевая стойкость и дисциплину. Назовите ИХ словом с двумя корнями.
+Ответ: Железнобокие.
+Комментарий: Черчилль дает прозвище дАлекам в честь кавалерии Оливера Кромвеля. Для закованных в металлическую конструкцию дАлеков оно подходит буквально.</t>
+  </si>
+  <si>
+    <t>Вопрос 3: РататОск в скандинавской мифологии — белка, бегающая по мировому древу. Музыкант, взявший псевдоним Рататоск, в дебютном альбоме использовал ЕЕ. ОНА выпускается, в том числе, под маркой "Stradivarius" [страдивАриус]. Назовите ЕЕ.
+Ответ: [Музыкальная] пила.
+Комментарий: Пила, как и белка, имеет отношение к дереву, хотя в скандинавских мифах ясень Иггдрасиль грызет дракон Нидхёгг, а не Рататоск. На музыкальной пиле играют смычком, отсюда брэнд "Stradivarius".</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -48,7 +216,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -56,11 +224,146 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -70,6 +373,39 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -351,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -367,7 +703,7 @@
     <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -375,230 +711,555 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="212.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="4">
+        <v>45574</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="278.39999999999998" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="7">
+        <v>45574</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="9">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="212.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="7">
+        <v>45574</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="9">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="238.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="7">
+        <v>45574</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="225.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="10">
+        <v>45574</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="199.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="7">
+        <v>45575</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="9">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="225.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="7">
+        <v>45575</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="9">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="133.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="7">
+        <v>45575</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="9">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="265.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="7">
+        <v>45575</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="10">
+        <v>45575</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+    </row>
+    <row r="12" spans="1:4" ht="238.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="7">
+        <v>45576</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="9">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="304.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="7">
+        <v>45576</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="9">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="212.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="7">
+        <v>45576</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="9">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="331.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="7">
+        <v>45576</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="9">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16" s="10">
+        <v>45576</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
+    </row>
+    <row r="17" spans="1:4" ht="278.39999999999998" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" s="7">
+        <v>45577</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="9">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="291.60000000000002" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18" s="7">
+        <v>45577</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="9">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="291.60000000000002" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19" s="7">
+        <v>45577</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="9">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="252" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20" s="7">
+        <v>45577</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="9">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B21" s="10">
+        <v>45577</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
+    </row>
+    <row r="22" spans="1:4" ht="252" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B22" s="7">
+        <v>45578</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="9">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="212.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B23" s="7">
+        <v>45578</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="9">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="252" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B24" s="7">
+        <v>45578</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="9">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="186" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B25" s="7">
+        <v>45578</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="9">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="199.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B26" s="10">
+        <v>45578</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="14">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="159.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B27" s="7">
+        <v>45579</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="9">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="199.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B28" s="7">
+        <v>45579</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="9">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="199.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B29" s="7">
+        <v>45579</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="9">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="212.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B30" s="7">
+        <v>45579</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="9">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B31" s="10">
+        <v>45579</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="12"/>
+    </row>
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B32" s="7"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B33" s="7"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B34" s="7"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B35" s="7"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B36" s="10"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="12"/>
+    </row>
+    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B37" s="7"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="9">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B38" s="7"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B39" s="7"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="9">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B40" s="7"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="9">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B41" s="10"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="12"/>
+    </row>
+    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B42" s="7"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="9">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B43" s="7"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="9">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B44" s="7"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="9">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B45" s="7"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>44</v>
       </c>
+      <c r="B46" s="10">
+        <v>45573</v>
+      </c>
+      <c r="C46" s="11"/>
+      <c r="D46" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
